--- a/artifacts/recipes/new_data/allrecipescom/vegan/vegan_soups-and-stews.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/vegan/vegan_soups-and-stews.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699656348-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16570/everyday-cooking/vegan/soups-and-stews/</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Vegan Soups and Stews</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699656351-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16570/everyday-cooking/vegan/soups-and-stews/</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -202,42 +543,43 @@
 Plant-Based Cream of Potato Soup</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278142/plant-based-cream-of-potato-soup/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Plant-Based Cream of Potato Soup</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n2 slices plant-based bacon, cut into 1-inch pieces\n\n\n1 cup diced onion\n\n\n1 cup diced carrots\n\n\n1 cup diced celery\n\n\n4 tablespoons all-purpose flour, divided\n\n\n2 medium potatoes, peeled and cubed\n\n\n1 teaspoon dried thyme\n\n\n½ teaspoon ground black pepper, or more to taste\n\n\n6 cups vegetable broth\n\n\n2 large bay leaves\n\n\n½ cup vegan butter\n\n\n1 ½ cups almond milk\n\n\n1 teaspoon dried parsley\n\n\n1 teaspoon dried chives, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n2 slices plant-based bacon, cut into 1-inch pieces\n\n\n1 cup diced onion\n\n\n1 cup diced carrots\n\n\n1 cup diced celery\n\n\n4 tablespoons all-purpose flour, divided\n\n\n2 medium potatoes, peeled and cubed\n\n\n1 teaspoon dried thyme\n\n\n½ teaspoon ground black pepper, or more to taste\n\n\n6 cups vegetable broth\n\n\n2 large bay leaves\n\n\n½ cup vegan butter\n\n\n1 ½ cups almond milk\n\n\n1 teaspoon dried parsley\n\n\n1 teaspoon dried chives, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a 6-quart Dutch oven over medium heat. Add plant-based bacon and cook until crispy, 5 to 7 minutes. Add onion, carrots, and celery and cook for 3 minutes."},{"recipe_directions":"Reduce heat to medium-low. Add 3 tablespoons flour and cook, stirring continuously, until lumps are dissolved. Stir in potatoes, thyme, and pepper. Add broth and bay leaves. Increase heat to high and bring to a boil. Reduce heat to medium-low, cover, and cook for 25 to 30 minutes."},{"recipe_directions":"While the soup is cooking, melt vegan butter in a skillet over low heat. Stir in remaining 1 tablespoon flour and cook until thickened, 1 to 2 minutes. Add milk. Cook, stirring constantly, over low to medium-low heat until mixture thickens to a cream-like consistency."},{"recipe_directions":"When the soup has finished cooking, pour in the vegan cream and simmer for 1 to 2 minutes. Stir in parsley and chives and serve."},{"recipe_directions":"You can use fresh thyme if preferred, and any plant-based milk."},{"recipe_directions":"I use Sweet Earth(R) Benevolent Bacon."},{"recipe_directions":"For a cheesy flavor, add 4 ounces or more of a shredded vegan cheese (such as an almond-based mozzarella or Chao) at the end of Step 4, just before serving."},{"recipe_directions":"Optional seasoning if you don't have celery and carrots: 1 teaspoon paprika, 1 teaspoon ground turmeric, and 1/2 teaspoon celery salt. Add these spices when pan-frying the \"bacon.\""}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Soups and Stews"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"461\nCalories\n\n\n28g \nFat\n\n\n45g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>